--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42975,6 +42975,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43010,6 +43010,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>113100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43045,6 +43045,41 @@
         <v>113100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>327000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43080,6 +43080,41 @@
         <v>327000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>145000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43115,6 +43115,41 @@
         <v>145000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>54200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43150,6 +43150,41 @@
         <v>54200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>249100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43185,6 +43185,41 @@
         <v>249100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>340800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43220,6 +43220,41 @@
         <v>340800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>382000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,41 @@
         <v>382000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>276900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         <v>276900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>175100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>175100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>62700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>62700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,76 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>183000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>875800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,76 @@
         <v>875800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>397700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>588300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,41 @@
         <v>588300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1162000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43570,6 +43570,41 @@
         <v>1162000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>556400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,41 @@
         <v>556400</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1325000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,41 @@
         <v>1325000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2855100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43675,6 +43675,76 @@
         <v>2855100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1309100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>199000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>199000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>473600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>473600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>421000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2247"/>
+  <dimension ref="A1:I2248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79025,6 +79025,41 @@
         <v>421000</v>
       </c>
     </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2248" t="n">
+        <v>899100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2248"/>
+  <dimension ref="A1:I2249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79060,6 +79060,41 @@
         <v>899100</v>
       </c>
     </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2249" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2249" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2249" t="n">
+        <v>1067000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2249"/>
+  <dimension ref="A1:I2250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79095,6 +79095,41 @@
         <v>1067000</v>
       </c>
     </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2250" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2250" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2250" t="n">
+        <v>674200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2250"/>
+  <dimension ref="A1:I2251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79130,6 +79130,41 @@
         <v>674200</v>
       </c>
     </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2251" t="n">
+        <v>3910100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2251"/>
+  <dimension ref="A1:I2252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79165,6 +79165,41 @@
         <v>3910100</v>
       </c>
     </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2252" t="n">
+        <v>712200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2252"/>
+  <dimension ref="A1:I2253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79200,6 +79200,41 @@
         <v>712200</v>
       </c>
     </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2253" t="n">
+        <v>613300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2253"/>
+  <dimension ref="A1:I2254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79235,6 +79235,41 @@
         <v>613300</v>
       </c>
     </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2254" t="n">
+        <v>903500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2254"/>
+  <dimension ref="A1:I2255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79270,6 +79270,41 @@
         <v>903500</v>
       </c>
     </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2255" t="n">
+        <v>998100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2255"/>
+  <dimension ref="A1:I2256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79305,6 +79305,41 @@
         <v>998100</v>
       </c>
     </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2256" t="n">
+        <v>1117800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2256"/>
+  <dimension ref="A1:I2257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79340,6 +79340,41 @@
         <v>1117800</v>
       </c>
     </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2257" t="n">
+        <v>1744700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2257"/>
+  <dimension ref="A1:I2258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79375,6 +79375,41 @@
         <v>1744700</v>
       </c>
     </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2258" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2258" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2258" t="n">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2258"/>
+  <dimension ref="A1:I2259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79410,6 +79410,41 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2259" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2259" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2259" t="n">
+        <v>998700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2259"/>
+  <dimension ref="A1:I2260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79445,6 +79445,41 @@
         <v>998700</v>
       </c>
     </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2260" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2260" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2260" t="n">
+        <v>1755400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2260"/>
+  <dimension ref="A1:I2261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79480,6 +79480,41 @@
         <v>1755400</v>
       </c>
     </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2261" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2261" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2261" t="n">
+        <v>1141000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2261"/>
+  <dimension ref="A1:I2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79515,6 +79515,41 @@
         <v>1141000</v>
       </c>
     </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2262" t="n">
+        <v>1005100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2262"/>
+  <dimension ref="A1:I2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79550,6 +79550,41 @@
         <v>1005100</v>
       </c>
     </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>1468300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2263"/>
+  <dimension ref="A1:I2264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79585,6 +79585,41 @@
         <v>1468300</v>
       </c>
     </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2264" t="n">
+        <v>1316200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2264"/>
+  <dimension ref="A1:I2265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79620,6 +79620,41 @@
         <v>1316200</v>
       </c>
     </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2265" t="n">
+        <v>1683000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2265"/>
+  <dimension ref="A1:I2266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79655,6 +79655,41 @@
         <v>1683000</v>
       </c>
     </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2266" t="n">
+        <v>1099000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2266"/>
+  <dimension ref="A1:I2267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79690,6 +79690,41 @@
         <v>1099000</v>
       </c>
     </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2267" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2267" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2267" t="n">
+        <v>680400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2267"/>
+  <dimension ref="A1:I2268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79725,6 +79725,41 @@
         <v>680400</v>
       </c>
     </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2268" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2268" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2268" t="n">
+        <v>472300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2268"/>
+  <dimension ref="A1:I2269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79760,6 +79760,41 @@
         <v>472300</v>
       </c>
     </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2269" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2269" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2269" t="n">
+        <v>25166300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2269"/>
+  <dimension ref="A1:I2270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79795,6 +79795,41 @@
         <v>25166300</v>
       </c>
     </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2270" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2270" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2270" t="n">
+        <v>11026600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2270"/>
+  <dimension ref="A1:I2271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79830,6 +79830,41 @@
         <v>11026600</v>
       </c>
     </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2271" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2271" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2271" t="n">
+        <v>2640800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2271"/>
+  <dimension ref="A1:I2272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79865,6 +79865,41 @@
         <v>2640800</v>
       </c>
     </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2272" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2272" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2272" t="n">
+        <v>4522700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2272"/>
+  <dimension ref="A1:I2274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79900,6 +79900,76 @@
         <v>4522700</v>
       </c>
     </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2273" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2273" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2273" t="n">
+        <v>4719300</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2274" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2274" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2274" t="n">
+        <v>2366200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2274"/>
+  <dimension ref="A1:I2275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79970,6 +79970,41 @@
         <v>2366200</v>
       </c>
     </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2275" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2275" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2275" t="n">
+        <v>3028700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2275"/>
+  <dimension ref="A1:I2278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80005,6 +80005,111 @@
         <v>3028700</v>
       </c>
     </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2276" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2276" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2276" t="n">
+        <v>1019100</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2277" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2277" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2277" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2277" t="n">
+        <v>747600</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2278" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2278" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2278" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2278" t="n">
+        <v>1582600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2278"/>
+  <dimension ref="A1:I2279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80110,6 +80110,41 @@
         <v>1582600</v>
       </c>
     </row>
+    <row r="2279">
+      <c r="A2279" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2279" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2279" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2279" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2279" t="n">
+        <v>832000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2279"/>
+  <dimension ref="A1:I2280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80145,6 +80145,41 @@
         <v>832000</v>
       </c>
     </row>
+    <row r="2280">
+      <c r="A2280" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2280" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2280" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2280" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2280" t="n">
+        <v>529000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5190.xlsx
+++ b/data/5190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2280"/>
+  <dimension ref="A1:I2283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80180,6 +80180,111 @@
         <v>529000</v>
       </c>
     </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2281" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2281" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2281" t="n">
+        <v>653800</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2282" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2282" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2282" t="n">
+        <v>1544700</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>5190</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>BENALEC</t>
+        </is>
+      </c>
+      <c r="E2283" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2283" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2283" t="n">
+        <v>5356100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
